--- a/src/16 Scientific Libraries/07 Spreadsheets/data/calendar.xlsx
+++ b/src/16 Scientific Libraries/07 Spreadsheets/data/calendar.xlsx
@@ -500,7 +500,7 @@
       <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>JANUARY</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr"/>
@@ -511,7 +511,7 @@
       <c r="L2" s="1" t="inlineStr"/>
       <c r="M2" s="2" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>JANUARY</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr"/>
@@ -816,7 +816,7 @@
       <c r="D10" s="1" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>FEBRUARY</t>
         </is>
       </c>
       <c r="F10" s="1" t="inlineStr"/>
@@ -827,7 +827,7 @@
       <c r="L10" s="1" t="inlineStr"/>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>FEBRUARY</t>
         </is>
       </c>
       <c r="N10" s="1" t="inlineStr"/>
@@ -1124,7 +1124,7 @@
       <c r="D18" s="1" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>MARCH</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr"/>
@@ -1135,7 +1135,7 @@
       <c r="L18" s="1" t="inlineStr"/>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>MARCH</t>
         </is>
       </c>
       <c r="N18" s="1" t="inlineStr"/>
@@ -1440,7 +1440,7 @@
       <c r="D26" s="1" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>APRIL</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr"/>
@@ -1451,7 +1451,7 @@
       <c r="L26" s="1" t="inlineStr"/>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>APRIL</t>
         </is>
       </c>
       <c r="N26" s="1" t="inlineStr"/>
@@ -1752,7 +1752,7 @@
       <c r="D34" s="1" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr"/>
@@ -1763,7 +1763,7 @@
       <c r="L34" s="1" t="inlineStr"/>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="N34" s="1" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
       <c r="D42" s="1" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>JUNE</t>
         </is>
       </c>
       <c r="F42" s="1" t="inlineStr"/>
@@ -2079,7 +2079,7 @@
       <c r="L42" s="1" t="inlineStr"/>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>JUNE</t>
         </is>
       </c>
       <c r="N42" s="1" t="inlineStr"/>
@@ -2380,7 +2380,7 @@
       <c r="D50" s="1" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>JULY</t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr"/>
@@ -2391,7 +2391,7 @@
       <c r="L50" s="1" t="inlineStr"/>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>JULY</t>
         </is>
       </c>
       <c r="N50" s="1" t="inlineStr"/>
@@ -2696,7 +2696,7 @@
       <c r="D58" s="1" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>AUGUST</t>
         </is>
       </c>
       <c r="F58" s="1" t="inlineStr"/>
@@ -2707,7 +2707,7 @@
       <c r="L58" s="1" t="inlineStr"/>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>AUGUST</t>
         </is>
       </c>
       <c r="N58" s="1" t="inlineStr"/>
@@ -3012,7 +3012,7 @@
       <c r="D66" s="1" t="inlineStr"/>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>SEPTEMBER</t>
         </is>
       </c>
       <c r="F66" s="1" t="inlineStr"/>
@@ -3023,7 +3023,7 @@
       <c r="L66" s="1" t="inlineStr"/>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>SEPTEMBER</t>
         </is>
       </c>
       <c r="N66" s="1" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
       <c r="D75" s="1" t="inlineStr"/>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>OCTOBER</t>
         </is>
       </c>
       <c r="F75" s="1" t="inlineStr"/>
@@ -3351,7 +3351,7 @@
       <c r="L75" s="1" t="inlineStr"/>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>OCTOBER</t>
         </is>
       </c>
       <c r="N75" s="1" t="inlineStr"/>
@@ -3656,7 +3656,7 @@
       <c r="D83" s="1" t="inlineStr"/>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>NOVEMBER</t>
         </is>
       </c>
       <c r="F83" s="1" t="inlineStr"/>
@@ -3667,7 +3667,7 @@
       <c r="L83" s="1" t="inlineStr"/>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>NOVEMBER</t>
         </is>
       </c>
       <c r="N83" s="1" t="inlineStr"/>
@@ -3968,7 +3968,7 @@
       <c r="D91" s="1" t="inlineStr"/>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>DECEMBER</t>
         </is>
       </c>
       <c r="F91" s="1" t="inlineStr"/>
@@ -3979,7 +3979,7 @@
       <c r="L91" s="1" t="inlineStr"/>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>DECEMBER</t>
         </is>
       </c>
       <c r="N91" s="1" t="inlineStr"/>

--- a/src/16 Scientific Libraries/07 Spreadsheets/data/calendar.xlsx
+++ b/src/16 Scientific Libraries/07 Spreadsheets/data/calendar.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -591,41 +591,13 @@
       </c>
     </row>
     <row r="4" ht="14.7" customHeight="1">
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="B4" s="1" t="inlineStr"/>
+      <c r="C4" s="1" t="inlineStr"/>
+      <c r="D4" s="1" t="inlineStr"/>
+      <c r="E4" s="1" t="inlineStr"/>
+      <c r="F4" s="1" t="inlineStr"/>
+      <c r="G4" s="1" t="inlineStr"/>
+      <c r="H4" s="1" t="inlineStr"/>
       <c r="J4" s="1" t="inlineStr"/>
       <c r="K4" s="1" t="inlineStr"/>
       <c r="L4" s="1" t="inlineStr"/>
@@ -635,41 +607,13 @@
       <c r="P4" s="1" t="inlineStr"/>
     </row>
     <row r="5" ht="14.7" customHeight="1">
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+      <c r="B5" s="1" t="inlineStr"/>
+      <c r="C5" s="1" t="inlineStr"/>
+      <c r="D5" s="1" t="inlineStr"/>
+      <c r="E5" s="1" t="inlineStr"/>
+      <c r="F5" s="1" t="inlineStr"/>
+      <c r="G5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="J5" s="1" t="inlineStr"/>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="inlineStr"/>
@@ -679,41 +623,13 @@
       <c r="P5" s="1" t="inlineStr"/>
     </row>
     <row r="6" ht="14.7" customHeight="1">
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr"/>
+      <c r="D6" s="1" t="inlineStr"/>
+      <c r="E6" s="1" t="inlineStr"/>
+      <c r="F6" s="1" t="inlineStr"/>
+      <c r="G6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr"/>
       <c r="J6" s="1" t="inlineStr"/>
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="inlineStr"/>
@@ -723,41 +639,13 @@
       <c r="P6" s="1" t="inlineStr"/>
     </row>
     <row r="7" ht="14.7" customHeight="1">
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" s="1" t="inlineStr"/>
+      <c r="D7" s="1" t="inlineStr"/>
+      <c r="E7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="inlineStr"/>
+      <c r="G7" s="1" t="inlineStr"/>
+      <c r="H7" s="1" t="inlineStr"/>
       <c r="J7" s="1" t="inlineStr"/>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="inlineStr"/>
@@ -767,21 +655,9 @@
       <c r="P7" s="1" t="inlineStr"/>
     </row>
     <row r="8" ht="14.7" customHeight="1">
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+      <c r="B8" s="1" t="inlineStr"/>
+      <c r="C8" s="1" t="inlineStr"/>
+      <c r="D8" s="1" t="inlineStr"/>
       <c r="E8" s="1" t="inlineStr"/>
       <c r="F8" s="1" t="inlineStr"/>
       <c r="G8" s="1" t="inlineStr"/>
@@ -910,26 +786,10 @@
       <c r="B12" s="1" t="inlineStr"/>
       <c r="C12" s="1" t="inlineStr"/>
       <c r="D12" s="1" t="inlineStr"/>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="E12" s="1" t="inlineStr"/>
+      <c r="F12" s="1" t="inlineStr"/>
+      <c r="G12" s="1" t="inlineStr"/>
+      <c r="H12" s="1" t="inlineStr"/>
       <c r="J12" s="1" t="inlineStr"/>
       <c r="K12" s="1" t="inlineStr"/>
       <c r="L12" s="1" t="inlineStr"/>
@@ -939,41 +799,13 @@
       <c r="P12" s="1" t="inlineStr"/>
     </row>
     <row r="13" ht="14.7" customHeight="1">
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+      <c r="B13" s="1" t="inlineStr"/>
+      <c r="C13" s="1" t="inlineStr"/>
+      <c r="D13" s="1" t="inlineStr"/>
+      <c r="E13" s="1" t="inlineStr"/>
+      <c r="F13" s="1" t="inlineStr"/>
+      <c r="G13" s="1" t="inlineStr"/>
+      <c r="H13" s="1" t="inlineStr"/>
       <c r="J13" s="1" t="inlineStr"/>
       <c r="K13" s="1" t="inlineStr"/>
       <c r="L13" s="1" t="inlineStr"/>
@@ -983,41 +815,13 @@
       <c r="P13" s="1" t="inlineStr"/>
     </row>
     <row r="14" ht="14.7" customHeight="1">
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
+      <c r="B14" s="1" t="inlineStr"/>
+      <c r="C14" s="1" t="inlineStr"/>
+      <c r="D14" s="1" t="inlineStr"/>
+      <c r="E14" s="1" t="inlineStr"/>
+      <c r="F14" s="1" t="inlineStr"/>
+      <c r="G14" s="1" t="inlineStr"/>
+      <c r="H14" s="1" t="inlineStr"/>
       <c r="J14" s="1" t="inlineStr"/>
       <c r="K14" s="1" t="inlineStr"/>
       <c r="L14" s="1" t="inlineStr"/>
@@ -1027,41 +831,13 @@
       <c r="P14" s="1" t="inlineStr"/>
     </row>
     <row r="15" ht="14.7" customHeight="1">
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="F15" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+      <c r="B15" s="1" t="inlineStr"/>
+      <c r="C15" s="1" t="inlineStr"/>
+      <c r="D15" s="1" t="inlineStr"/>
+      <c r="E15" s="1" t="inlineStr"/>
+      <c r="F15" s="1" t="inlineStr"/>
+      <c r="G15" s="1" t="inlineStr"/>
+      <c r="H15" s="1" t="inlineStr"/>
       <c r="J15" s="1" t="inlineStr"/>
       <c r="K15" s="1" t="inlineStr"/>
       <c r="L15" s="1" t="inlineStr"/>
@@ -1071,26 +847,10 @@
       <c r="P15" s="1" t="inlineStr"/>
     </row>
     <row r="16" ht="14.7" customHeight="1">
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" s="1" t="inlineStr"/>
+      <c r="D16" s="1" t="inlineStr"/>
+      <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1" t="inlineStr"/>
       <c r="G16" s="1" t="inlineStr"/>
       <c r="H16" s="1" t="inlineStr"/>
@@ -1219,21 +979,9 @@
       <c r="C20" s="1" t="inlineStr"/>
       <c r="D20" s="1" t="inlineStr"/>
       <c r="E20" s="1" t="inlineStr"/>
-      <c r="F20" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G20" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F20" s="1" t="inlineStr"/>
+      <c r="G20" s="1" t="inlineStr"/>
+      <c r="H20" s="1" t="inlineStr"/>
       <c r="J20" s="1" t="inlineStr"/>
       <c r="K20" s="1" t="inlineStr"/>
       <c r="L20" s="1" t="inlineStr"/>
@@ -1243,41 +991,13 @@
       <c r="P20" s="1" t="inlineStr"/>
     </row>
     <row r="21" ht="14.7" customHeight="1">
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F21" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G21" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="B21" s="1" t="inlineStr"/>
+      <c r="C21" s="1" t="inlineStr"/>
+      <c r="D21" s="1" t="inlineStr"/>
+      <c r="E21" s="1" t="inlineStr"/>
+      <c r="F21" s="1" t="inlineStr"/>
+      <c r="G21" s="1" t="inlineStr"/>
+      <c r="H21" s="1" t="inlineStr"/>
       <c r="J21" s="1" t="inlineStr"/>
       <c r="K21" s="1" t="inlineStr"/>
       <c r="L21" s="1" t="inlineStr"/>
@@ -1287,41 +1007,13 @@
       <c r="P21" s="1" t="inlineStr"/>
     </row>
     <row r="22" ht="14.7" customHeight="1">
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="F22" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G22" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+      <c r="B22" s="1" t="inlineStr"/>
+      <c r="C22" s="1" t="inlineStr"/>
+      <c r="D22" s="1" t="inlineStr"/>
+      <c r="E22" s="1" t="inlineStr"/>
+      <c r="F22" s="1" t="inlineStr"/>
+      <c r="G22" s="1" t="inlineStr"/>
+      <c r="H22" s="1" t="inlineStr"/>
       <c r="J22" s="1" t="inlineStr"/>
       <c r="K22" s="1" t="inlineStr"/>
       <c r="L22" s="1" t="inlineStr"/>
@@ -1331,41 +1023,13 @@
       <c r="P22" s="1" t="inlineStr"/>
     </row>
     <row r="23" ht="14.7" customHeight="1">
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="F23" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+      <c r="B23" s="1" t="inlineStr"/>
+      <c r="C23" s="1" t="inlineStr"/>
+      <c r="D23" s="1" t="inlineStr"/>
+      <c r="E23" s="1" t="inlineStr"/>
+      <c r="F23" s="1" t="inlineStr"/>
+      <c r="G23" s="1" t="inlineStr"/>
+      <c r="H23" s="1" t="inlineStr"/>
       <c r="J23" s="1" t="inlineStr"/>
       <c r="K23" s="1" t="inlineStr"/>
       <c r="L23" s="1" t="inlineStr"/>
@@ -1375,41 +1039,13 @@
       <c r="P23" s="1" t="inlineStr"/>
     </row>
     <row r="24" ht="14.7" customHeight="1">
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E24" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="F24" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+      <c r="B24" s="1" t="inlineStr"/>
+      <c r="C24" s="1" t="inlineStr"/>
+      <c r="D24" s="1" t="inlineStr"/>
+      <c r="E24" s="1" t="inlineStr"/>
+      <c r="F24" s="1" t="inlineStr"/>
+      <c r="G24" s="1" t="inlineStr"/>
+      <c r="H24" s="1" t="inlineStr"/>
       <c r="J24" s="1" t="inlineStr"/>
       <c r="K24" s="1" t="inlineStr"/>
       <c r="L24" s="1" t="inlineStr"/>
@@ -1438,178 +1074,122 @@
       <c r="B26" s="1" t="inlineStr"/>
       <c r="C26" s="1" t="inlineStr"/>
       <c r="D26" s="1" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>APRIL</t>
-        </is>
-      </c>
+      <c r="E26" s="1" t="inlineStr"/>
       <c r="F26" s="1" t="inlineStr"/>
       <c r="G26" s="1" t="inlineStr"/>
       <c r="H26" s="1" t="inlineStr"/>
       <c r="J26" s="1" t="inlineStr"/>
       <c r="K26" s="1" t="inlineStr"/>
       <c r="L26" s="1" t="inlineStr"/>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>APRIL</t>
-        </is>
-      </c>
+      <c r="M26" s="1" t="inlineStr"/>
       <c r="N26" s="1" t="inlineStr"/>
       <c r="O26" s="1" t="inlineStr"/>
       <c r="P26" s="1" t="inlineStr"/>
     </row>
     <row r="27" ht="14.7" customHeight="1">
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr"/>
+      <c r="C27" s="1" t="inlineStr"/>
+      <c r="D27" s="1" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>APRIL</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr"/>
+      <c r="G27" s="1" t="inlineStr"/>
+      <c r="H27" s="1" t="inlineStr"/>
+      <c r="J27" s="1" t="inlineStr"/>
+      <c r="K27" s="1" t="inlineStr"/>
+      <c r="L27" s="1" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>APRIL</t>
+        </is>
+      </c>
+      <c r="N27" s="1" t="inlineStr"/>
+      <c r="O27" s="1" t="inlineStr"/>
+      <c r="P27" s="1" t="inlineStr"/>
+    </row>
+    <row r="28" ht="14.7" customHeight="1">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Tu</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>Th</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>Sa</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
+      <c r="H28" s="2" t="inlineStr">
         <is>
           <t>Su</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
+      <c r="J28" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K27" s="2" t="inlineStr">
+      <c r="K28" s="2" t="inlineStr">
         <is>
           <t>Tu</t>
         </is>
       </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="M27" s="2" t="inlineStr">
+      <c r="M28" s="2" t="inlineStr">
         <is>
           <t>Th</t>
         </is>
       </c>
-      <c r="N27" s="2" t="inlineStr">
+      <c r="N28" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="O27" s="2" t="inlineStr">
+      <c r="O28" s="2" t="inlineStr">
         <is>
           <t>Sa</t>
         </is>
       </c>
-      <c r="P27" s="2" t="inlineStr">
+      <c r="P28" s="2" t="inlineStr">
         <is>
           <t>Su</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="14.7" customHeight="1">
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F28" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J28" s="1" t="inlineStr"/>
-      <c r="K28" s="1" t="inlineStr"/>
-      <c r="L28" s="1" t="inlineStr"/>
-      <c r="M28" s="1" t="inlineStr"/>
-      <c r="N28" s="1" t="inlineStr"/>
-      <c r="O28" s="1" t="inlineStr"/>
-      <c r="P28" s="1" t="inlineStr"/>
-    </row>
     <row r="29" ht="14.7" customHeight="1">
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F29" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+      <c r="B29" s="1" t="inlineStr"/>
+      <c r="C29" s="1" t="inlineStr"/>
+      <c r="D29" s="1" t="inlineStr"/>
+      <c r="E29" s="1" t="inlineStr"/>
+      <c r="F29" s="1" t="inlineStr"/>
+      <c r="G29" s="1" t="inlineStr"/>
+      <c r="H29" s="1" t="inlineStr"/>
       <c r="J29" s="1" t="inlineStr"/>
       <c r="K29" s="1" t="inlineStr"/>
       <c r="L29" s="1" t="inlineStr"/>
@@ -1619,41 +1199,13 @@
       <c r="P29" s="1" t="inlineStr"/>
     </row>
     <row r="30" ht="14.7" customHeight="1">
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E30" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="F30" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="G30" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+      <c r="B30" s="1" t="inlineStr"/>
+      <c r="C30" s="1" t="inlineStr"/>
+      <c r="D30" s="1" t="inlineStr"/>
+      <c r="E30" s="1" t="inlineStr"/>
+      <c r="F30" s="1" t="inlineStr"/>
+      <c r="G30" s="1" t="inlineStr"/>
+      <c r="H30" s="1" t="inlineStr"/>
       <c r="J30" s="1" t="inlineStr"/>
       <c r="K30" s="1" t="inlineStr"/>
       <c r="L30" s="1" t="inlineStr"/>
@@ -1663,41 +1215,13 @@
       <c r="P30" s="1" t="inlineStr"/>
     </row>
     <row r="31" ht="14.7" customHeight="1">
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E31" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="F31" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="G31" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+      <c r="B31" s="1" t="inlineStr"/>
+      <c r="C31" s="1" t="inlineStr"/>
+      <c r="D31" s="1" t="inlineStr"/>
+      <c r="E31" s="1" t="inlineStr"/>
+      <c r="F31" s="1" t="inlineStr"/>
+      <c r="G31" s="1" t="inlineStr"/>
+      <c r="H31" s="1" t="inlineStr"/>
       <c r="J31" s="1" t="inlineStr"/>
       <c r="K31" s="1" t="inlineStr"/>
       <c r="L31" s="1" t="inlineStr"/>
@@ -1707,16 +1231,8 @@
       <c r="P31" s="1" t="inlineStr"/>
     </row>
     <row r="32" ht="14.7" customHeight="1">
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="B32" s="1" t="inlineStr"/>
+      <c r="C32" s="1" t="inlineStr"/>
       <c r="D32" s="1" t="inlineStr"/>
       <c r="E32" s="1" t="inlineStr"/>
       <c r="F32" s="1" t="inlineStr"/>
@@ -1750,170 +1266,122 @@
       <c r="B34" s="1" t="inlineStr"/>
       <c r="C34" s="1" t="inlineStr"/>
       <c r="D34" s="1" t="inlineStr"/>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="E34" s="1" t="inlineStr"/>
       <c r="F34" s="1" t="inlineStr"/>
       <c r="G34" s="1" t="inlineStr"/>
       <c r="H34" s="1" t="inlineStr"/>
       <c r="J34" s="1" t="inlineStr"/>
       <c r="K34" s="1" t="inlineStr"/>
       <c r="L34" s="1" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="M34" s="1" t="inlineStr"/>
       <c r="N34" s="1" t="inlineStr"/>
       <c r="O34" s="1" t="inlineStr"/>
       <c r="P34" s="1" t="inlineStr"/>
     </row>
     <row r="35" ht="14.7" customHeight="1">
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr"/>
+      <c r="C35" s="1" t="inlineStr"/>
+      <c r="D35" s="1" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr"/>
+      <c r="G35" s="1" t="inlineStr"/>
+      <c r="H35" s="1" t="inlineStr"/>
+      <c r="J35" s="1" t="inlineStr"/>
+      <c r="K35" s="1" t="inlineStr"/>
+      <c r="L35" s="1" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+      <c r="N35" s="1" t="inlineStr"/>
+      <c r="O35" s="1" t="inlineStr"/>
+      <c r="P35" s="1" t="inlineStr"/>
+    </row>
+    <row r="36" ht="14.7" customHeight="1">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Tu</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>Th</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
+      <c r="G36" s="2" t="inlineStr">
         <is>
           <t>Sa</t>
         </is>
       </c>
-      <c r="H35" s="2" t="inlineStr">
+      <c r="H36" s="2" t="inlineStr">
         <is>
           <t>Su</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
+      <c r="J36" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K35" s="2" t="inlineStr">
+      <c r="K36" s="2" t="inlineStr">
         <is>
           <t>Tu</t>
         </is>
       </c>
-      <c r="L35" s="2" t="inlineStr">
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="M35" s="2" t="inlineStr">
+      <c r="M36" s="2" t="inlineStr">
         <is>
           <t>Th</t>
         </is>
       </c>
-      <c r="N35" s="2" t="inlineStr">
+      <c r="N36" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="O35" s="2" t="inlineStr">
+      <c r="O36" s="2" t="inlineStr">
         <is>
           <t>Sa</t>
         </is>
       </c>
-      <c r="P35" s="2" t="inlineStr">
+      <c r="P36" s="2" t="inlineStr">
         <is>
           <t>Su</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="14.7" customHeight="1">
-      <c r="B36" s="1" t="inlineStr"/>
-      <c r="C36" s="1" t="inlineStr"/>
-      <c r="D36" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F36" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G36" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J36" s="1" t="inlineStr"/>
-      <c r="K36" s="1" t="inlineStr"/>
-      <c r="L36" s="1" t="inlineStr"/>
-      <c r="M36" s="1" t="inlineStr"/>
-      <c r="N36" s="1" t="inlineStr"/>
-      <c r="O36" s="1" t="inlineStr"/>
-      <c r="P36" s="1" t="inlineStr"/>
-    </row>
     <row r="37" ht="14.7" customHeight="1">
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E37" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F37" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G37" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="B37" s="1" t="inlineStr"/>
+      <c r="C37" s="1" t="inlineStr"/>
+      <c r="D37" s="1" t="inlineStr"/>
+      <c r="E37" s="1" t="inlineStr"/>
+      <c r="F37" s="1" t="inlineStr"/>
+      <c r="G37" s="1" t="inlineStr"/>
+      <c r="H37" s="1" t="inlineStr"/>
       <c r="J37" s="1" t="inlineStr"/>
       <c r="K37" s="1" t="inlineStr"/>
       <c r="L37" s="1" t="inlineStr"/>
@@ -1923,41 +1391,13 @@
       <c r="P37" s="1" t="inlineStr"/>
     </row>
     <row r="38" ht="14.7" customHeight="1">
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E38" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="F38" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="G38" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="B38" s="1" t="inlineStr"/>
+      <c r="C38" s="1" t="inlineStr"/>
+      <c r="D38" s="1" t="inlineStr"/>
+      <c r="E38" s="1" t="inlineStr"/>
+      <c r="F38" s="1" t="inlineStr"/>
+      <c r="G38" s="1" t="inlineStr"/>
+      <c r="H38" s="1" t="inlineStr"/>
       <c r="J38" s="1" t="inlineStr"/>
       <c r="K38" s="1" t="inlineStr"/>
       <c r="L38" s="1" t="inlineStr"/>
@@ -1967,41 +1407,13 @@
       <c r="P38" s="1" t="inlineStr"/>
     </row>
     <row r="39" ht="14.7" customHeight="1">
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="E39" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F39" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="G39" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
+      <c r="B39" s="1" t="inlineStr"/>
+      <c r="C39" s="1" t="inlineStr"/>
+      <c r="D39" s="1" t="inlineStr"/>
+      <c r="E39" s="1" t="inlineStr"/>
+      <c r="F39" s="1" t="inlineStr"/>
+      <c r="G39" s="1" t="inlineStr"/>
+      <c r="H39" s="1" t="inlineStr"/>
       <c r="J39" s="1" t="inlineStr"/>
       <c r="K39" s="1" t="inlineStr"/>
       <c r="L39" s="1" t="inlineStr"/>
@@ -2011,31 +1423,11 @@
       <c r="P39" s="1" t="inlineStr"/>
     </row>
     <row r="40" ht="14.7" customHeight="1">
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="E40" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="F40" s="1" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+      <c r="B40" s="1" t="inlineStr"/>
+      <c r="C40" s="1" t="inlineStr"/>
+      <c r="D40" s="1" t="inlineStr"/>
+      <c r="E40" s="1" t="inlineStr"/>
+      <c r="F40" s="1" t="inlineStr"/>
       <c r="G40" s="1" t="inlineStr"/>
       <c r="H40" s="1" t="inlineStr"/>
       <c r="J40" s="1" t="inlineStr"/>
@@ -2066,158 +1458,122 @@
       <c r="B42" s="1" t="inlineStr"/>
       <c r="C42" s="1" t="inlineStr"/>
       <c r="D42" s="1" t="inlineStr"/>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>JUNE</t>
-        </is>
-      </c>
+      <c r="E42" s="1" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr"/>
       <c r="G42" s="1" t="inlineStr"/>
       <c r="H42" s="1" t="inlineStr"/>
       <c r="J42" s="1" t="inlineStr"/>
       <c r="K42" s="1" t="inlineStr"/>
       <c r="L42" s="1" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr">
-        <is>
-          <t>JUNE</t>
-        </is>
-      </c>
+      <c r="M42" s="1" t="inlineStr"/>
       <c r="N42" s="1" t="inlineStr"/>
       <c r="O42" s="1" t="inlineStr"/>
       <c r="P42" s="1" t="inlineStr"/>
     </row>
     <row r="43" ht="14.7" customHeight="1">
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr"/>
+      <c r="C43" s="1" t="inlineStr"/>
+      <c r="D43" s="1" t="inlineStr"/>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+      <c r="F43" s="1" t="inlineStr"/>
+      <c r="G43" s="1" t="inlineStr"/>
+      <c r="H43" s="1" t="inlineStr"/>
+      <c r="J43" s="1" t="inlineStr"/>
+      <c r="K43" s="1" t="inlineStr"/>
+      <c r="L43" s="1" t="inlineStr"/>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>JUNE</t>
+        </is>
+      </c>
+      <c r="N43" s="1" t="inlineStr"/>
+      <c r="O43" s="1" t="inlineStr"/>
+      <c r="P43" s="1" t="inlineStr"/>
+    </row>
+    <row r="44" ht="14.7" customHeight="1">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Tu</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="E43" s="2" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>Th</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr">
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>Sa</t>
         </is>
       </c>
-      <c r="H43" s="2" t="inlineStr">
+      <c r="H44" s="2" t="inlineStr">
         <is>
           <t>Su</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
+      <c r="J44" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K43" s="2" t="inlineStr">
+      <c r="K44" s="2" t="inlineStr">
         <is>
           <t>Tu</t>
         </is>
       </c>
-      <c r="L43" s="2" t="inlineStr">
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="M43" s="2" t="inlineStr">
+      <c r="M44" s="2" t="inlineStr">
         <is>
           <t>Th</t>
         </is>
       </c>
-      <c r="N43" s="2" t="inlineStr">
+      <c r="N44" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="O43" s="2" t="inlineStr">
+      <c r="O44" s="2" t="inlineStr">
         <is>
           <t>Sa</t>
         </is>
       </c>
-      <c r="P43" s="2" t="inlineStr">
+      <c r="P44" s="2" t="inlineStr">
         <is>
           <t>Su</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="14.7" customHeight="1">
-      <c r="B44" s="1" t="inlineStr"/>
-      <c r="C44" s="1" t="inlineStr"/>
-      <c r="D44" s="1" t="inlineStr"/>
-      <c r="E44" s="1" t="inlineStr"/>
-      <c r="F44" s="1" t="inlineStr"/>
-      <c r="G44" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J44" s="1" t="inlineStr"/>
-      <c r="K44" s="1" t="inlineStr"/>
-      <c r="L44" s="1" t="inlineStr"/>
-      <c r="M44" s="1" t="inlineStr"/>
-      <c r="N44" s="1" t="inlineStr"/>
-      <c r="O44" s="1" t="inlineStr"/>
-      <c r="P44" s="1" t="inlineStr"/>
-    </row>
     <row r="45" ht="14.7" customHeight="1">
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F45" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G45" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="B45" s="1" t="inlineStr"/>
+      <c r="C45" s="1" t="inlineStr"/>
+      <c r="D45" s="1" t="inlineStr"/>
+      <c r="E45" s="1" t="inlineStr"/>
+      <c r="F45" s="1" t="inlineStr"/>
+      <c r="G45" s="1" t="inlineStr"/>
+      <c r="H45" s="1" t="inlineStr"/>
       <c r="J45" s="1" t="inlineStr"/>
       <c r="K45" s="1" t="inlineStr"/>
       <c r="L45" s="1" t="inlineStr"/>
@@ -2227,41 +1583,13 @@
       <c r="P45" s="1" t="inlineStr"/>
     </row>
     <row r="46" ht="14.7" customHeight="1">
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E46" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="F46" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G46" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+      <c r="B46" s="1" t="inlineStr"/>
+      <c r="C46" s="1" t="inlineStr"/>
+      <c r="D46" s="1" t="inlineStr"/>
+      <c r="E46" s="1" t="inlineStr"/>
+      <c r="F46" s="1" t="inlineStr"/>
+      <c r="G46" s="1" t="inlineStr"/>
+      <c r="H46" s="1" t="inlineStr"/>
       <c r="J46" s="1" t="inlineStr"/>
       <c r="K46" s="1" t="inlineStr"/>
       <c r="L46" s="1" t="inlineStr"/>
@@ -2271,41 +1599,13 @@
       <c r="P46" s="1" t="inlineStr"/>
     </row>
     <row r="47" ht="14.7" customHeight="1">
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F47" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="G47" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+      <c r="B47" s="1" t="inlineStr"/>
+      <c r="C47" s="1" t="inlineStr"/>
+      <c r="D47" s="1" t="inlineStr"/>
+      <c r="E47" s="1" t="inlineStr"/>
+      <c r="F47" s="1" t="inlineStr"/>
+      <c r="G47" s="1" t="inlineStr"/>
+      <c r="H47" s="1" t="inlineStr"/>
       <c r="J47" s="1" t="inlineStr"/>
       <c r="K47" s="1" t="inlineStr"/>
       <c r="L47" s="1" t="inlineStr"/>
@@ -2315,41 +1615,13 @@
       <c r="P47" s="1" t="inlineStr"/>
     </row>
     <row r="48" ht="14.7" customHeight="1">
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="F48" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="G48" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="B48" s="1" t="inlineStr"/>
+      <c r="C48" s="1" t="inlineStr"/>
+      <c r="D48" s="1" t="inlineStr"/>
+      <c r="E48" s="1" t="inlineStr"/>
+      <c r="F48" s="1" t="inlineStr"/>
+      <c r="G48" s="1" t="inlineStr"/>
+      <c r="H48" s="1" t="inlineStr"/>
       <c r="J48" s="1" t="inlineStr"/>
       <c r="K48" s="1" t="inlineStr"/>
       <c r="L48" s="1" t="inlineStr"/>
@@ -2378,222 +1650,138 @@
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" s="1" t="inlineStr"/>
       <c r="D50" s="1" t="inlineStr"/>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>JULY</t>
-        </is>
-      </c>
+      <c r="E50" s="1" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr"/>
       <c r="G50" s="1" t="inlineStr"/>
       <c r="H50" s="1" t="inlineStr"/>
       <c r="J50" s="1" t="inlineStr"/>
       <c r="K50" s="1" t="inlineStr"/>
       <c r="L50" s="1" t="inlineStr"/>
-      <c r="M50" s="2" t="inlineStr">
-        <is>
-          <t>JULY</t>
-        </is>
-      </c>
+      <c r="M50" s="1" t="inlineStr"/>
       <c r="N50" s="1" t="inlineStr"/>
       <c r="O50" s="1" t="inlineStr"/>
       <c r="P50" s="1" t="inlineStr"/>
     </row>
     <row r="51" ht="14.7" customHeight="1">
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>Tu</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>Sa</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Su</t>
-        </is>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>Tu</t>
-        </is>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="M51" s="2" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
-      </c>
-      <c r="N51" s="2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="O51" s="2" t="inlineStr">
-        <is>
-          <t>Sa</t>
-        </is>
-      </c>
-      <c r="P51" s="2" t="inlineStr">
-        <is>
-          <t>Su</t>
-        </is>
-      </c>
+      <c r="B51" s="1" t="inlineStr"/>
+      <c r="C51" s="1" t="inlineStr"/>
+      <c r="D51" s="1" t="inlineStr"/>
+      <c r="E51" s="1" t="inlineStr"/>
+      <c r="F51" s="1" t="inlineStr"/>
+      <c r="G51" s="1" t="inlineStr"/>
+      <c r="H51" s="1" t="inlineStr"/>
+      <c r="J51" s="1" t="inlineStr"/>
+      <c r="K51" s="1" t="inlineStr"/>
+      <c r="L51" s="1" t="inlineStr"/>
+      <c r="M51" s="1" t="inlineStr"/>
+      <c r="N51" s="1" t="inlineStr"/>
+      <c r="O51" s="1" t="inlineStr"/>
+      <c r="P51" s="1" t="inlineStr"/>
     </row>
     <row r="52" ht="14.7" customHeight="1">
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E52" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F52" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G52" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="B52" s="1" t="inlineStr"/>
+      <c r="C52" s="1" t="inlineStr"/>
+      <c r="D52" s="1" t="inlineStr"/>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr"/>
+      <c r="G52" s="1" t="inlineStr"/>
+      <c r="H52" s="1" t="inlineStr"/>
       <c r="J52" s="1" t="inlineStr"/>
       <c r="K52" s="1" t="inlineStr"/>
       <c r="L52" s="1" t="inlineStr"/>
-      <c r="M52" s="1" t="inlineStr"/>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
+      </c>
       <c r="N52" s="1" t="inlineStr"/>
       <c r="O52" s="1" t="inlineStr"/>
       <c r="P52" s="1" t="inlineStr"/>
     </row>
     <row r="53" ht="14.7" customHeight="1">
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E53" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F53" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G53" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J53" s="1" t="inlineStr"/>
-      <c r="K53" s="1" t="inlineStr"/>
-      <c r="L53" s="1" t="inlineStr"/>
-      <c r="M53" s="1" t="inlineStr"/>
-      <c r="N53" s="1" t="inlineStr"/>
-      <c r="O53" s="1" t="inlineStr"/>
-      <c r="P53" s="1" t="inlineStr"/>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Su</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O53" s="2" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>Su</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="14.7" customHeight="1">
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E54" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="F54" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="G54" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+      <c r="B54" s="1" t="inlineStr"/>
+      <c r="C54" s="1" t="inlineStr"/>
+      <c r="D54" s="1" t="inlineStr"/>
+      <c r="E54" s="1" t="inlineStr"/>
+      <c r="F54" s="1" t="inlineStr"/>
+      <c r="G54" s="1" t="inlineStr"/>
+      <c r="H54" s="1" t="inlineStr"/>
       <c r="J54" s="1" t="inlineStr"/>
       <c r="K54" s="1" t="inlineStr"/>
       <c r="L54" s="1" t="inlineStr"/>
@@ -2603,41 +1791,13 @@
       <c r="P54" s="1" t="inlineStr"/>
     </row>
     <row r="55" ht="14.7" customHeight="1">
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E55" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="F55" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="G55" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+      <c r="B55" s="1" t="inlineStr"/>
+      <c r="C55" s="1" t="inlineStr"/>
+      <c r="D55" s="1" t="inlineStr"/>
+      <c r="E55" s="1" t="inlineStr"/>
+      <c r="F55" s="1" t="inlineStr"/>
+      <c r="G55" s="1" t="inlineStr"/>
+      <c r="H55" s="1" t="inlineStr"/>
       <c r="J55" s="1" t="inlineStr"/>
       <c r="K55" s="1" t="inlineStr"/>
       <c r="L55" s="1" t="inlineStr"/>
@@ -2647,21 +1807,9 @@
       <c r="P55" s="1" t="inlineStr"/>
     </row>
     <row r="56" ht="14.7" customHeight="1">
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+      <c r="B56" s="1" t="inlineStr"/>
+      <c r="C56" s="1" t="inlineStr"/>
+      <c r="D56" s="1" t="inlineStr"/>
       <c r="E56" s="1" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr"/>
       <c r="G56" s="1" t="inlineStr"/>
@@ -2694,210 +1842,138 @@
       <c r="B58" s="1" t="inlineStr"/>
       <c r="C58" s="1" t="inlineStr"/>
       <c r="D58" s="1" t="inlineStr"/>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>AUGUST</t>
-        </is>
-      </c>
+      <c r="E58" s="1" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr"/>
       <c r="G58" s="1" t="inlineStr"/>
       <c r="H58" s="1" t="inlineStr"/>
       <c r="J58" s="1" t="inlineStr"/>
       <c r="K58" s="1" t="inlineStr"/>
       <c r="L58" s="1" t="inlineStr"/>
-      <c r="M58" s="2" t="inlineStr">
-        <is>
-          <t>AUGUST</t>
-        </is>
-      </c>
+      <c r="M58" s="1" t="inlineStr"/>
       <c r="N58" s="1" t="inlineStr"/>
       <c r="O58" s="1" t="inlineStr"/>
       <c r="P58" s="1" t="inlineStr"/>
     </row>
     <row r="59" ht="14.7" customHeight="1">
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>Tu</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>Sa</t>
-        </is>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>Su</t>
-        </is>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="inlineStr">
-        <is>
-          <t>Tu</t>
-        </is>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="M59" s="2" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
-      </c>
-      <c r="N59" s="2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="O59" s="2" t="inlineStr">
-        <is>
-          <t>Sa</t>
-        </is>
-      </c>
-      <c r="P59" s="2" t="inlineStr">
-        <is>
-          <t>Su</t>
-        </is>
-      </c>
+      <c r="B59" s="1" t="inlineStr"/>
+      <c r="C59" s="1" t="inlineStr"/>
+      <c r="D59" s="1" t="inlineStr"/>
+      <c r="E59" s="1" t="inlineStr"/>
+      <c r="F59" s="1" t="inlineStr"/>
+      <c r="G59" s="1" t="inlineStr"/>
+      <c r="H59" s="1" t="inlineStr"/>
+      <c r="J59" s="1" t="inlineStr"/>
+      <c r="K59" s="1" t="inlineStr"/>
+      <c r="L59" s="1" t="inlineStr"/>
+      <c r="M59" s="1" t="inlineStr"/>
+      <c r="N59" s="1" t="inlineStr"/>
+      <c r="O59" s="1" t="inlineStr"/>
+      <c r="P59" s="1" t="inlineStr"/>
     </row>
     <row r="60" ht="14.7" customHeight="1">
       <c r="B60" s="1" t="inlineStr"/>
       <c r="C60" s="1" t="inlineStr"/>
       <c r="D60" s="1" t="inlineStr"/>
-      <c r="E60" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F60" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G60" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>AUGUST</t>
+        </is>
+      </c>
+      <c r="F60" s="1" t="inlineStr"/>
+      <c r="G60" s="1" t="inlineStr"/>
+      <c r="H60" s="1" t="inlineStr"/>
       <c r="J60" s="1" t="inlineStr"/>
       <c r="K60" s="1" t="inlineStr"/>
       <c r="L60" s="1" t="inlineStr"/>
-      <c r="M60" s="1" t="inlineStr"/>
+      <c r="M60" s="2" t="inlineStr">
+        <is>
+          <t>AUGUST</t>
+        </is>
+      </c>
       <c r="N60" s="1" t="inlineStr"/>
       <c r="O60" s="1" t="inlineStr"/>
       <c r="P60" s="1" t="inlineStr"/>
     </row>
     <row r="61" ht="14.7" customHeight="1">
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E61" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F61" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G61" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="J61" s="1" t="inlineStr"/>
-      <c r="K61" s="1" t="inlineStr"/>
-      <c r="L61" s="1" t="inlineStr"/>
-      <c r="M61" s="1" t="inlineStr"/>
-      <c r="N61" s="1" t="inlineStr"/>
-      <c r="O61" s="1" t="inlineStr"/>
-      <c r="P61" s="1" t="inlineStr"/>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>Su</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="M61" s="2" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="N61" s="2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O61" s="2" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="P61" s="2" t="inlineStr">
+        <is>
+          <t>Su</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="14.7" customHeight="1">
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E62" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F62" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G62" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
+      <c r="B62" s="1" t="inlineStr"/>
+      <c r="C62" s="1" t="inlineStr"/>
+      <c r="D62" s="1" t="inlineStr"/>
+      <c r="E62" s="1" t="inlineStr"/>
+      <c r="F62" s="1" t="inlineStr"/>
+      <c r="G62" s="1" t="inlineStr"/>
+      <c r="H62" s="1" t="inlineStr"/>
       <c r="J62" s="1" t="inlineStr"/>
       <c r="K62" s="1" t="inlineStr"/>
       <c r="L62" s="1" t="inlineStr"/>
@@ -2907,41 +1983,13 @@
       <c r="P62" s="1" t="inlineStr"/>
     </row>
     <row r="63" ht="14.7" customHeight="1">
-      <c r="B63" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C63" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D63" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="E63" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="F63" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="G63" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="H63" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+      <c r="B63" s="1" t="inlineStr"/>
+      <c r="C63" s="1" t="inlineStr"/>
+      <c r="D63" s="1" t="inlineStr"/>
+      <c r="E63" s="1" t="inlineStr"/>
+      <c r="F63" s="1" t="inlineStr"/>
+      <c r="G63" s="1" t="inlineStr"/>
+      <c r="H63" s="1" t="inlineStr"/>
       <c r="J63" s="1" t="inlineStr"/>
       <c r="K63" s="1" t="inlineStr"/>
       <c r="L63" s="1" t="inlineStr"/>
@@ -2951,36 +1999,12 @@
       <c r="P63" s="1" t="inlineStr"/>
     </row>
     <row r="64" ht="14.7" customHeight="1">
-      <c r="B64" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="C64" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D64" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="E64" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="F64" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="G64" s="1" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+      <c r="B64" s="1" t="inlineStr"/>
+      <c r="C64" s="1" t="inlineStr"/>
+      <c r="D64" s="1" t="inlineStr"/>
+      <c r="E64" s="1" t="inlineStr"/>
+      <c r="F64" s="1" t="inlineStr"/>
+      <c r="G64" s="1" t="inlineStr"/>
       <c r="H64" s="1" t="inlineStr"/>
       <c r="J64" s="1" t="inlineStr"/>
       <c r="K64" s="1" t="inlineStr"/>
@@ -3010,198 +2034,138 @@
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" s="1" t="inlineStr"/>
       <c r="D66" s="1" t="inlineStr"/>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>SEPTEMBER</t>
-        </is>
-      </c>
+      <c r="E66" s="1" t="inlineStr"/>
       <c r="F66" s="1" t="inlineStr"/>
       <c r="G66" s="1" t="inlineStr"/>
       <c r="H66" s="1" t="inlineStr"/>
       <c r="J66" s="1" t="inlineStr"/>
       <c r="K66" s="1" t="inlineStr"/>
       <c r="L66" s="1" t="inlineStr"/>
-      <c r="M66" s="2" t="inlineStr">
-        <is>
-          <t>SEPTEMBER</t>
-        </is>
-      </c>
+      <c r="M66" s="1" t="inlineStr"/>
       <c r="N66" s="1" t="inlineStr"/>
       <c r="O66" s="1" t="inlineStr"/>
       <c r="P66" s="1" t="inlineStr"/>
     </row>
     <row r="67" ht="14.7" customHeight="1">
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>Tu</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>Sa</t>
-        </is>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>Su</t>
-        </is>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="inlineStr">
-        <is>
-          <t>Tu</t>
-        </is>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="M67" s="2" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
-      </c>
-      <c r="N67" s="2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="O67" s="2" t="inlineStr">
-        <is>
-          <t>Sa</t>
-        </is>
-      </c>
-      <c r="P67" s="2" t="inlineStr">
-        <is>
-          <t>Su</t>
-        </is>
-      </c>
+      <c r="B67" s="1" t="inlineStr"/>
+      <c r="C67" s="1" t="inlineStr"/>
+      <c r="D67" s="1" t="inlineStr"/>
+      <c r="E67" s="1" t="inlineStr"/>
+      <c r="F67" s="1" t="inlineStr"/>
+      <c r="G67" s="1" t="inlineStr"/>
+      <c r="H67" s="1" t="inlineStr"/>
+      <c r="J67" s="1" t="inlineStr"/>
+      <c r="K67" s="1" t="inlineStr"/>
+      <c r="L67" s="1" t="inlineStr"/>
+      <c r="M67" s="1" t="inlineStr"/>
+      <c r="N67" s="1" t="inlineStr"/>
+      <c r="O67" s="1" t="inlineStr"/>
+      <c r="P67" s="1" t="inlineStr"/>
     </row>
     <row r="68" ht="14.7" customHeight="1">
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" s="1" t="inlineStr"/>
       <c r="D68" s="1" t="inlineStr"/>
-      <c r="E68" s="1" t="inlineStr"/>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>SEPTEMBER</t>
+        </is>
+      </c>
       <c r="F68" s="1" t="inlineStr"/>
       <c r="G68" s="1" t="inlineStr"/>
-      <c r="H68" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="H68" s="1" t="inlineStr"/>
       <c r="J68" s="1" t="inlineStr"/>
       <c r="K68" s="1" t="inlineStr"/>
       <c r="L68" s="1" t="inlineStr"/>
-      <c r="M68" s="1" t="inlineStr"/>
+      <c r="M68" s="2" t="inlineStr">
+        <is>
+          <t>SEPTEMBER</t>
+        </is>
+      </c>
       <c r="N68" s="1" t="inlineStr"/>
       <c r="O68" s="1" t="inlineStr"/>
       <c r="P68" s="1" t="inlineStr"/>
     </row>
     <row r="69" ht="14.7" customHeight="1">
-      <c r="B69" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C69" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D69" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E69" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F69" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G69" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H69" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J69" s="1" t="inlineStr"/>
-      <c r="K69" s="1" t="inlineStr"/>
-      <c r="L69" s="1" t="inlineStr"/>
-      <c r="M69" s="1" t="inlineStr"/>
-      <c r="N69" s="1" t="inlineStr"/>
-      <c r="O69" s="1" t="inlineStr"/>
-      <c r="P69" s="1" t="inlineStr"/>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>Su</t>
+        </is>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="M69" s="2" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="N69" s="2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O69" s="2" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="P69" s="2" t="inlineStr">
+        <is>
+          <t>Su</t>
+        </is>
+      </c>
     </row>
     <row r="70" ht="14.7" customHeight="1">
-      <c r="B70" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C70" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D70" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E70" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F70" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G70" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H70" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="B70" s="1" t="inlineStr"/>
+      <c r="C70" s="1" t="inlineStr"/>
+      <c r="D70" s="1" t="inlineStr"/>
+      <c r="E70" s="1" t="inlineStr"/>
+      <c r="F70" s="1" t="inlineStr"/>
+      <c r="G70" s="1" t="inlineStr"/>
+      <c r="H70" s="1" t="inlineStr"/>
       <c r="J70" s="1" t="inlineStr"/>
       <c r="K70" s="1" t="inlineStr"/>
       <c r="L70" s="1" t="inlineStr"/>
@@ -3211,41 +2175,13 @@
       <c r="P70" s="1" t="inlineStr"/>
     </row>
     <row r="71" ht="14.7" customHeight="1">
-      <c r="B71" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="C71" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D71" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="E71" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="F71" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="G71" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H71" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
+      <c r="B71" s="1" t="inlineStr"/>
+      <c r="C71" s="1" t="inlineStr"/>
+      <c r="D71" s="1" t="inlineStr"/>
+      <c r="E71" s="1" t="inlineStr"/>
+      <c r="F71" s="1" t="inlineStr"/>
+      <c r="G71" s="1" t="inlineStr"/>
+      <c r="H71" s="1" t="inlineStr"/>
       <c r="J71" s="1" t="inlineStr"/>
       <c r="K71" s="1" t="inlineStr"/>
       <c r="L71" s="1" t="inlineStr"/>
@@ -3255,41 +2191,13 @@
       <c r="P71" s="1" t="inlineStr"/>
     </row>
     <row r="72" ht="14.7" customHeight="1">
-      <c r="B72" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C72" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D72" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E72" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="F72" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="G72" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="H72" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+      <c r="B72" s="1" t="inlineStr"/>
+      <c r="C72" s="1" t="inlineStr"/>
+      <c r="D72" s="1" t="inlineStr"/>
+      <c r="E72" s="1" t="inlineStr"/>
+      <c r="F72" s="1" t="inlineStr"/>
+      <c r="G72" s="1" t="inlineStr"/>
+      <c r="H72" s="1" t="inlineStr"/>
       <c r="J72" s="1" t="inlineStr"/>
       <c r="K72" s="1" t="inlineStr"/>
       <c r="L72" s="1" t="inlineStr"/>
@@ -3299,11 +2207,7 @@
       <c r="P72" s="1" t="inlineStr"/>
     </row>
     <row r="73" ht="14.7" customHeight="1">
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" s="1" t="inlineStr"/>
       <c r="D73" s="1" t="inlineStr"/>
       <c r="E73" s="1" t="inlineStr"/>
@@ -3338,174 +2242,122 @@
       <c r="B75" s="1" t="inlineStr"/>
       <c r="C75" s="1" t="inlineStr"/>
       <c r="D75" s="1" t="inlineStr"/>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>OCTOBER</t>
-        </is>
-      </c>
+      <c r="E75" s="1" t="inlineStr"/>
       <c r="F75" s="1" t="inlineStr"/>
       <c r="G75" s="1" t="inlineStr"/>
       <c r="H75" s="1" t="inlineStr"/>
       <c r="J75" s="1" t="inlineStr"/>
       <c r="K75" s="1" t="inlineStr"/>
       <c r="L75" s="1" t="inlineStr"/>
-      <c r="M75" s="2" t="inlineStr">
-        <is>
-          <t>OCTOBER</t>
-        </is>
-      </c>
+      <c r="M75" s="1" t="inlineStr"/>
       <c r="N75" s="1" t="inlineStr"/>
       <c r="O75" s="1" t="inlineStr"/>
       <c r="P75" s="1" t="inlineStr"/>
     </row>
     <row r="76" ht="14.7" customHeight="1">
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" s="1" t="inlineStr"/>
+      <c r="C76" s="1" t="inlineStr"/>
+      <c r="D76" s="1" t="inlineStr"/>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>OCTOBER</t>
+        </is>
+      </c>
+      <c r="F76" s="1" t="inlineStr"/>
+      <c r="G76" s="1" t="inlineStr"/>
+      <c r="H76" s="1" t="inlineStr"/>
+      <c r="J76" s="1" t="inlineStr"/>
+      <c r="K76" s="1" t="inlineStr"/>
+      <c r="L76" s="1" t="inlineStr"/>
+      <c r="M76" s="2" t="inlineStr">
+        <is>
+          <t>OCTOBER</t>
+        </is>
+      </c>
+      <c r="N76" s="1" t="inlineStr"/>
+      <c r="O76" s="1" t="inlineStr"/>
+      <c r="P76" s="1" t="inlineStr"/>
+    </row>
+    <row r="77" ht="14.7" customHeight="1">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>Tu</t>
         </is>
       </c>
-      <c r="D76" s="2" t="inlineStr">
+      <c r="D77" s="2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="E76" s="2" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>Th</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
+      <c r="F77" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G76" s="2" t="inlineStr">
+      <c r="G77" s="2" t="inlineStr">
         <is>
           <t>Sa</t>
         </is>
       </c>
-      <c r="H76" s="2" t="inlineStr">
+      <c r="H77" s="2" t="inlineStr">
         <is>
           <t>Su</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
+      <c r="J77" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K76" s="2" t="inlineStr">
+      <c r="K77" s="2" t="inlineStr">
         <is>
           <t>Tu</t>
         </is>
       </c>
-      <c r="L76" s="2" t="inlineStr">
+      <c r="L77" s="2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="M76" s="2" t="inlineStr">
+      <c r="M77" s="2" t="inlineStr">
         <is>
           <t>Th</t>
         </is>
       </c>
-      <c r="N76" s="2" t="inlineStr">
+      <c r="N77" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="O76" s="2" t="inlineStr">
+      <c r="O77" s="2" t="inlineStr">
         <is>
           <t>Sa</t>
         </is>
       </c>
-      <c r="P76" s="2" t="inlineStr">
+      <c r="P77" s="2" t="inlineStr">
         <is>
           <t>Su</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="14.7" customHeight="1">
-      <c r="B77" s="1" t="inlineStr"/>
-      <c r="C77" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D77" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E77" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F77" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G77" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H77" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J77" s="1" t="inlineStr"/>
-      <c r="K77" s="1" t="inlineStr"/>
-      <c r="L77" s="1" t="inlineStr"/>
-      <c r="M77" s="1" t="inlineStr"/>
-      <c r="N77" s="1" t="inlineStr"/>
-      <c r="O77" s="1" t="inlineStr"/>
-      <c r="P77" s="1" t="inlineStr"/>
-    </row>
     <row r="78" ht="14.7" customHeight="1">
-      <c r="B78" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C78" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D78" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E78" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F78" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="G78" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H78" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
+      <c r="B78" s="1" t="inlineStr"/>
+      <c r="C78" s="1" t="inlineStr"/>
+      <c r="D78" s="1" t="inlineStr"/>
+      <c r="E78" s="1" t="inlineStr"/>
+      <c r="F78" s="1" t="inlineStr"/>
+      <c r="G78" s="1" t="inlineStr"/>
+      <c r="H78" s="1" t="inlineStr"/>
       <c r="J78" s="1" t="inlineStr"/>
       <c r="K78" s="1" t="inlineStr"/>
       <c r="L78" s="1" t="inlineStr"/>
@@ -3515,41 +2367,13 @@
       <c r="P78" s="1" t="inlineStr"/>
     </row>
     <row r="79" ht="14.7" customHeight="1">
-      <c r="B79" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="C79" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D79" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E79" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F79" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="G79" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H79" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+      <c r="B79" s="1" t="inlineStr"/>
+      <c r="C79" s="1" t="inlineStr"/>
+      <c r="D79" s="1" t="inlineStr"/>
+      <c r="E79" s="1" t="inlineStr"/>
+      <c r="F79" s="1" t="inlineStr"/>
+      <c r="G79" s="1" t="inlineStr"/>
+      <c r="H79" s="1" t="inlineStr"/>
       <c r="J79" s="1" t="inlineStr"/>
       <c r="K79" s="1" t="inlineStr"/>
       <c r="L79" s="1" t="inlineStr"/>
@@ -3559,41 +2383,13 @@
       <c r="P79" s="1" t="inlineStr"/>
     </row>
     <row r="80" ht="14.7" customHeight="1">
-      <c r="B80" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C80" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D80" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E80" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="F80" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="G80" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="H80" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
+      <c r="B80" s="1" t="inlineStr"/>
+      <c r="C80" s="1" t="inlineStr"/>
+      <c r="D80" s="1" t="inlineStr"/>
+      <c r="E80" s="1" t="inlineStr"/>
+      <c r="F80" s="1" t="inlineStr"/>
+      <c r="G80" s="1" t="inlineStr"/>
+      <c r="H80" s="1" t="inlineStr"/>
       <c r="J80" s="1" t="inlineStr"/>
       <c r="K80" s="1" t="inlineStr"/>
       <c r="L80" s="1" t="inlineStr"/>
@@ -3603,26 +2399,10 @@
       <c r="P80" s="1" t="inlineStr"/>
     </row>
     <row r="81" ht="14.7" customHeight="1">
-      <c r="B81" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="C81" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D81" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E81" s="1" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+      <c r="B81" s="1" t="inlineStr"/>
+      <c r="C81" s="1" t="inlineStr"/>
+      <c r="D81" s="1" t="inlineStr"/>
+      <c r="E81" s="1" t="inlineStr"/>
       <c r="F81" s="1" t="inlineStr"/>
       <c r="G81" s="1" t="inlineStr"/>
       <c r="H81" s="1" t="inlineStr"/>
@@ -3654,162 +2434,122 @@
       <c r="B83" s="1" t="inlineStr"/>
       <c r="C83" s="1" t="inlineStr"/>
       <c r="D83" s="1" t="inlineStr"/>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>NOVEMBER</t>
-        </is>
-      </c>
+      <c r="E83" s="1" t="inlineStr"/>
       <c r="F83" s="1" t="inlineStr"/>
       <c r="G83" s="1" t="inlineStr"/>
       <c r="H83" s="1" t="inlineStr"/>
       <c r="J83" s="1" t="inlineStr"/>
       <c r="K83" s="1" t="inlineStr"/>
       <c r="L83" s="1" t="inlineStr"/>
-      <c r="M83" s="2" t="inlineStr">
-        <is>
-          <t>NOVEMBER</t>
-        </is>
-      </c>
+      <c r="M83" s="1" t="inlineStr"/>
       <c r="N83" s="1" t="inlineStr"/>
       <c r="O83" s="1" t="inlineStr"/>
       <c r="P83" s="1" t="inlineStr"/>
     </row>
     <row r="84" ht="14.7" customHeight="1">
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" s="1" t="inlineStr"/>
+      <c r="C84" s="1" t="inlineStr"/>
+      <c r="D84" s="1" t="inlineStr"/>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>NOVEMBER</t>
+        </is>
+      </c>
+      <c r="F84" s="1" t="inlineStr"/>
+      <c r="G84" s="1" t="inlineStr"/>
+      <c r="H84" s="1" t="inlineStr"/>
+      <c r="J84" s="1" t="inlineStr"/>
+      <c r="K84" s="1" t="inlineStr"/>
+      <c r="L84" s="1" t="inlineStr"/>
+      <c r="M84" s="2" t="inlineStr">
+        <is>
+          <t>NOVEMBER</t>
+        </is>
+      </c>
+      <c r="N84" s="1" t="inlineStr"/>
+      <c r="O84" s="1" t="inlineStr"/>
+      <c r="P84" s="1" t="inlineStr"/>
+    </row>
+    <row r="85" ht="14.7" customHeight="1">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>Tu</t>
         </is>
       </c>
-      <c r="D84" s="2" t="inlineStr">
+      <c r="D85" s="2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="E84" s="2" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
         <is>
           <t>Th</t>
         </is>
       </c>
-      <c r="F84" s="2" t="inlineStr">
+      <c r="F85" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G84" s="2" t="inlineStr">
+      <c r="G85" s="2" t="inlineStr">
         <is>
           <t>Sa</t>
         </is>
       </c>
-      <c r="H84" s="2" t="inlineStr">
+      <c r="H85" s="2" t="inlineStr">
         <is>
           <t>Su</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
+      <c r="J85" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K84" s="2" t="inlineStr">
+      <c r="K85" s="2" t="inlineStr">
         <is>
           <t>Tu</t>
         </is>
       </c>
-      <c r="L84" s="2" t="inlineStr">
+      <c r="L85" s="2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="M84" s="2" t="inlineStr">
+      <c r="M85" s="2" t="inlineStr">
         <is>
           <t>Th</t>
         </is>
       </c>
-      <c r="N84" s="2" t="inlineStr">
+      <c r="N85" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="O84" s="2" t="inlineStr">
+      <c r="O85" s="2" t="inlineStr">
         <is>
           <t>Sa</t>
         </is>
       </c>
-      <c r="P84" s="2" t="inlineStr">
+      <c r="P85" s="2" t="inlineStr">
         <is>
           <t>Su</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="14.7" customHeight="1">
-      <c r="B85" s="1" t="inlineStr"/>
-      <c r="C85" s="1" t="inlineStr"/>
-      <c r="D85" s="1" t="inlineStr"/>
-      <c r="E85" s="1" t="inlineStr"/>
-      <c r="F85" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G85" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H85" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J85" s="1" t="inlineStr"/>
-      <c r="K85" s="1" t="inlineStr"/>
-      <c r="L85" s="1" t="inlineStr"/>
-      <c r="M85" s="1" t="inlineStr"/>
-      <c r="N85" s="1" t="inlineStr"/>
-      <c r="O85" s="1" t="inlineStr"/>
-      <c r="P85" s="1" t="inlineStr"/>
-    </row>
     <row r="86" ht="14.7" customHeight="1">
-      <c r="B86" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C86" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D86" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E86" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F86" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G86" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H86" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="B86" s="1" t="inlineStr"/>
+      <c r="C86" s="1" t="inlineStr"/>
+      <c r="D86" s="1" t="inlineStr"/>
+      <c r="E86" s="1" t="inlineStr"/>
+      <c r="F86" s="1" t="inlineStr"/>
+      <c r="G86" s="1" t="inlineStr"/>
+      <c r="H86" s="1" t="inlineStr"/>
       <c r="J86" s="1" t="inlineStr"/>
       <c r="K86" s="1" t="inlineStr"/>
       <c r="L86" s="1" t="inlineStr"/>
@@ -3819,41 +2559,13 @@
       <c r="P86" s="1" t="inlineStr"/>
     </row>
     <row r="87" ht="14.7" customHeight="1">
-      <c r="B87" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C87" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D87" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E87" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="F87" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G87" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H87" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+      <c r="B87" s="1" t="inlineStr"/>
+      <c r="C87" s="1" t="inlineStr"/>
+      <c r="D87" s="1" t="inlineStr"/>
+      <c r="E87" s="1" t="inlineStr"/>
+      <c r="F87" s="1" t="inlineStr"/>
+      <c r="G87" s="1" t="inlineStr"/>
+      <c r="H87" s="1" t="inlineStr"/>
       <c r="J87" s="1" t="inlineStr"/>
       <c r="K87" s="1" t="inlineStr"/>
       <c r="L87" s="1" t="inlineStr"/>
@@ -3863,41 +2575,13 @@
       <c r="P87" s="1" t="inlineStr"/>
     </row>
     <row r="88" ht="14.7" customHeight="1">
-      <c r="B88" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C88" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D88" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E88" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="F88" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="G88" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="H88" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+      <c r="B88" s="1" t="inlineStr"/>
+      <c r="C88" s="1" t="inlineStr"/>
+      <c r="D88" s="1" t="inlineStr"/>
+      <c r="E88" s="1" t="inlineStr"/>
+      <c r="F88" s="1" t="inlineStr"/>
+      <c r="G88" s="1" t="inlineStr"/>
+      <c r="H88" s="1" t="inlineStr"/>
       <c r="J88" s="1" t="inlineStr"/>
       <c r="K88" s="1" t="inlineStr"/>
       <c r="L88" s="1" t="inlineStr"/>
@@ -3907,36 +2591,12 @@
       <c r="P88" s="1" t="inlineStr"/>
     </row>
     <row r="89" ht="14.7" customHeight="1">
-      <c r="B89" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C89" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="D89" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E89" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="F89" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="G89" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="B89" s="1" t="inlineStr"/>
+      <c r="C89" s="1" t="inlineStr"/>
+      <c r="D89" s="1" t="inlineStr"/>
+      <c r="E89" s="1" t="inlineStr"/>
+      <c r="F89" s="1" t="inlineStr"/>
+      <c r="G89" s="1" t="inlineStr"/>
       <c r="H89" s="1" t="inlineStr"/>
       <c r="J89" s="1" t="inlineStr"/>
       <c r="K89" s="1" t="inlineStr"/>
@@ -3966,154 +2626,122 @@
       <c r="B91" s="1" t="inlineStr"/>
       <c r="C91" s="1" t="inlineStr"/>
       <c r="D91" s="1" t="inlineStr"/>
-      <c r="E91" s="2" t="inlineStr">
-        <is>
-          <t>DECEMBER</t>
-        </is>
-      </c>
+      <c r="E91" s="1" t="inlineStr"/>
       <c r="F91" s="1" t="inlineStr"/>
       <c r="G91" s="1" t="inlineStr"/>
       <c r="H91" s="1" t="inlineStr"/>
       <c r="J91" s="1" t="inlineStr"/>
       <c r="K91" s="1" t="inlineStr"/>
       <c r="L91" s="1" t="inlineStr"/>
-      <c r="M91" s="2" t="inlineStr">
-        <is>
-          <t>DECEMBER</t>
-        </is>
-      </c>
+      <c r="M91" s="1" t="inlineStr"/>
       <c r="N91" s="1" t="inlineStr"/>
       <c r="O91" s="1" t="inlineStr"/>
       <c r="P91" s="1" t="inlineStr"/>
     </row>
     <row r="92" ht="14.7" customHeight="1">
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B92" s="1" t="inlineStr"/>
+      <c r="C92" s="1" t="inlineStr"/>
+      <c r="D92" s="1" t="inlineStr"/>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>DECEMBER</t>
+        </is>
+      </c>
+      <c r="F92" s="1" t="inlineStr"/>
+      <c r="G92" s="1" t="inlineStr"/>
+      <c r="H92" s="1" t="inlineStr"/>
+      <c r="J92" s="1" t="inlineStr"/>
+      <c r="K92" s="1" t="inlineStr"/>
+      <c r="L92" s="1" t="inlineStr"/>
+      <c r="M92" s="2" t="inlineStr">
+        <is>
+          <t>DECEMBER</t>
+        </is>
+      </c>
+      <c r="N92" s="1" t="inlineStr"/>
+      <c r="O92" s="1" t="inlineStr"/>
+      <c r="P92" s="1" t="inlineStr"/>
+    </row>
+    <row r="93" ht="14.7" customHeight="1">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>Tu</t>
         </is>
       </c>
-      <c r="D92" s="2" t="inlineStr">
+      <c r="D93" s="2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="E92" s="2" t="inlineStr">
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>Th</t>
         </is>
       </c>
-      <c r="F92" s="2" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G92" s="2" t="inlineStr">
+      <c r="G93" s="2" t="inlineStr">
         <is>
           <t>Sa</t>
         </is>
       </c>
-      <c r="H92" s="2" t="inlineStr">
+      <c r="H93" s="2" t="inlineStr">
         <is>
           <t>Su</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
+      <c r="J93" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K92" s="2" t="inlineStr">
+      <c r="K93" s="2" t="inlineStr">
         <is>
           <t>Tu</t>
         </is>
       </c>
-      <c r="L92" s="2" t="inlineStr">
+      <c r="L93" s="2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="M92" s="2" t="inlineStr">
+      <c r="M93" s="2" t="inlineStr">
         <is>
           <t>Th</t>
         </is>
       </c>
-      <c r="N92" s="2" t="inlineStr">
+      <c r="N93" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="O92" s="2" t="inlineStr">
+      <c r="O93" s="2" t="inlineStr">
         <is>
           <t>Sa</t>
         </is>
       </c>
-      <c r="P92" s="2" t="inlineStr">
+      <c r="P93" s="2" t="inlineStr">
         <is>
           <t>Su</t>
         </is>
       </c>
     </row>
-    <row r="93" ht="14.7" customHeight="1">
-      <c r="B93" s="1" t="inlineStr"/>
-      <c r="C93" s="1" t="inlineStr"/>
-      <c r="D93" s="1" t="inlineStr"/>
-      <c r="E93" s="1" t="inlineStr"/>
-      <c r="F93" s="1" t="inlineStr"/>
-      <c r="G93" s="1" t="inlineStr"/>
-      <c r="H93" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J93" s="1" t="inlineStr"/>
-      <c r="K93" s="1" t="inlineStr"/>
-      <c r="L93" s="1" t="inlineStr"/>
-      <c r="M93" s="1" t="inlineStr"/>
-      <c r="N93" s="1" t="inlineStr"/>
-      <c r="O93" s="1" t="inlineStr"/>
-      <c r="P93" s="1" t="inlineStr"/>
-    </row>
     <row r="94" ht="14.7" customHeight="1">
-      <c r="B94" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C94" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D94" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E94" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F94" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G94" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H94" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="B94" s="1" t="inlineStr"/>
+      <c r="C94" s="1" t="inlineStr"/>
+      <c r="D94" s="1" t="inlineStr"/>
+      <c r="E94" s="1" t="inlineStr"/>
+      <c r="F94" s="1" t="inlineStr"/>
+      <c r="G94" s="1" t="inlineStr"/>
+      <c r="H94" s="1" t="inlineStr"/>
       <c r="J94" s="1" t="inlineStr"/>
       <c r="K94" s="1" t="inlineStr"/>
       <c r="L94" s="1" t="inlineStr"/>
@@ -4123,41 +2751,13 @@
       <c r="P94" s="1" t="inlineStr"/>
     </row>
     <row r="95" ht="14.7" customHeight="1">
-      <c r="B95" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C95" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D95" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E95" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F95" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G95" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H95" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="B95" s="1" t="inlineStr"/>
+      <c r="C95" s="1" t="inlineStr"/>
+      <c r="D95" s="1" t="inlineStr"/>
+      <c r="E95" s="1" t="inlineStr"/>
+      <c r="F95" s="1" t="inlineStr"/>
+      <c r="G95" s="1" t="inlineStr"/>
+      <c r="H95" s="1" t="inlineStr"/>
       <c r="J95" s="1" t="inlineStr"/>
       <c r="K95" s="1" t="inlineStr"/>
       <c r="L95" s="1" t="inlineStr"/>
@@ -4167,41 +2767,13 @@
       <c r="P95" s="1" t="inlineStr"/>
     </row>
     <row r="96" ht="14.7" customHeight="1">
-      <c r="B96" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="C96" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D96" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="E96" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="F96" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="G96" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H96" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
+      <c r="B96" s="1" t="inlineStr"/>
+      <c r="C96" s="1" t="inlineStr"/>
+      <c r="D96" s="1" t="inlineStr"/>
+      <c r="E96" s="1" t="inlineStr"/>
+      <c r="F96" s="1" t="inlineStr"/>
+      <c r="G96" s="1" t="inlineStr"/>
+      <c r="H96" s="1" t="inlineStr"/>
       <c r="J96" s="1" t="inlineStr"/>
       <c r="K96" s="1" t="inlineStr"/>
       <c r="L96" s="1" t="inlineStr"/>
@@ -4211,41 +2783,13 @@
       <c r="P96" s="1" t="inlineStr"/>
     </row>
     <row r="97" ht="14.7" customHeight="1">
-      <c r="B97" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C97" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D97" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E97" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="F97" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="G97" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="H97" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+      <c r="B97" s="1" t="inlineStr"/>
+      <c r="C97" s="1" t="inlineStr"/>
+      <c r="D97" s="1" t="inlineStr"/>
+      <c r="E97" s="1" t="inlineStr"/>
+      <c r="F97" s="1" t="inlineStr"/>
+      <c r="G97" s="1" t="inlineStr"/>
+      <c r="H97" s="1" t="inlineStr"/>
       <c r="J97" s="1" t="inlineStr"/>
       <c r="K97" s="1" t="inlineStr"/>
       <c r="L97" s="1" t="inlineStr"/>
@@ -4255,16 +2799,8 @@
       <c r="P97" s="1" t="inlineStr"/>
     </row>
     <row r="98" ht="14.7" customHeight="1">
-      <c r="B98" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C98" s="1" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+      <c r="B98" s="1" t="inlineStr"/>
+      <c r="C98" s="1" t="inlineStr"/>
       <c r="D98" s="1" t="inlineStr"/>
       <c r="E98" s="1" t="inlineStr"/>
       <c r="F98" s="1" t="inlineStr"/>
